--- a/src/test/resources/jacobi/test/data/MulTTest.xlsx
+++ b/src/test/resources/jacobi/test/data/MulTTest.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deveykchan1\git\jacobi\src\test\resources\jacobi\test\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="22995" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="22995" windowHeight="7740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="(3x7)x(7x4)^t" sheetId="1" r:id="rId1"/>
     <sheet name="(6x2)x(5x2)^t" sheetId="2" r:id="rId2"/>
     <sheet name="(10x4)x(4x13)^t" sheetId="4" r:id="rId3"/>
-    <sheet name="rand" sheetId="3" r:id="rId4"/>
+    <sheet name="(10x4)x(1x4)^t" sheetId="5" r:id="rId4"/>
+    <sheet name="rand" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>#0</t>
   </si>
@@ -73,6 +79,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -120,7 +129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,7 +164,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="I49" sqref="I49:I50"/>
     </sheetView>
   </sheetViews>
@@ -1953,10 +1962,269 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6.2170000620117012</v>
+      </c>
+      <c r="B3">
+        <v>6.1742210223658986</v>
+      </c>
+      <c r="C3">
+        <v>11.443395789849649</v>
+      </c>
+      <c r="D3">
+        <v>12.089884469951162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-4.3611728867561972</v>
+      </c>
+      <c r="B4">
+        <v>11.592774661135813</v>
+      </c>
+      <c r="C4">
+        <v>8.3821562276637742</v>
+      </c>
+      <c r="D4">
+        <v>9.9515472358946724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9.49920935609655</v>
+      </c>
+      <c r="B5">
+        <v>11.211524440442169</v>
+      </c>
+      <c r="C5">
+        <v>9.8565764492933781</v>
+      </c>
+      <c r="D5">
+        <v>-4.6544858639289899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12.827347910230703</v>
+      </c>
+      <c r="B6">
+        <v>-4.4158089017815154</v>
+      </c>
+      <c r="C6">
+        <v>-6.6846317094889116</v>
+      </c>
+      <c r="D6">
+        <v>-6.3161544362927078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.8321920706858386</v>
+      </c>
+      <c r="B7">
+        <v>4.9290200989323765</v>
+      </c>
+      <c r="C7">
+        <v>-1.2054415112728938</v>
+      </c>
+      <c r="D7">
+        <v>12.327411093730177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3.125161004255022</v>
+      </c>
+      <c r="B8">
+        <v>11.042710229745396</v>
+      </c>
+      <c r="C8">
+        <v>8.1813181793816572</v>
+      </c>
+      <c r="D8">
+        <v>6.6847899059862534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-5.3627404851548803</v>
+      </c>
+      <c r="B9">
+        <v>11.297251801049267</v>
+      </c>
+      <c r="C9">
+        <v>11.487152709253415</v>
+      </c>
+      <c r="D9">
+        <v>7.5281179787147714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8.7445922437938073</v>
+      </c>
+      <c r="B10">
+        <v>-0.94074770135555585</v>
+      </c>
+      <c r="C10">
+        <v>9.6302223789678223</v>
+      </c>
+      <c r="D10">
+        <v>-3.3284412563706272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-4.8641046629116707</v>
+      </c>
+      <c r="B11">
+        <v>-2.9865191127507238</v>
+      </c>
+      <c r="C11">
+        <v>3.8247799386319628</v>
+      </c>
+      <c r="D11">
+        <v>3.9823361049357437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1.0005531148919182</v>
+      </c>
+      <c r="B12">
+        <v>-6.0002470822003211</v>
+      </c>
+      <c r="C12">
+        <v>1.7952693876643178</v>
+      </c>
+      <c r="D12">
+        <v>1.9854145401946788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-0.20361563251122483</v>
+      </c>
+      <c r="B16">
+        <v>5.2883738706698082</v>
+      </c>
+      <c r="C16">
+        <v>3.47580431079985</v>
+      </c>
+      <c r="D16">
+        <v>-3.4159294332471095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="array" ref="A20:A29">MMULT(A3:D12,TRANSPOSE(A16:D16))</f>
+        <v>29.862522937556172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>57.335881222811373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>107.51547155122199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-27.62323084032003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-20.809622672774946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>64.63620227593286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>75.047604156115426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>38.086927669733726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-15.112614407962244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-32.069852520078278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:N8"/>
+      <selection activeCell="H3" sqref="H3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,1401 +2232,1401 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>-5.6797529510592186</v>
+        <v>9.3074372358726052</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:Q16" ca="1" si="0">RAND()*20-7</f>
-        <v>-4.14092696169158</v>
+        <v>10.207828038330696</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.934244126902831</v>
+        <v>11.790972118522816</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7243593013777936</v>
+        <v>8.5209102973130371</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8763807275644169</v>
+        <v>5.6029857898442614</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3908509275935774</v>
+        <v>6.8555195905874129</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9424223385580603</v>
+        <v>9.2927328571512184</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3629817738998384</v>
+        <v>11.434725956687423</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1331371376185952</v>
+        <v>-2.3856169019599491</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6608111699187873</v>
+        <v>3.2410587443648957</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.979705647367739</v>
+        <v>6.3208689780147065</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1485166126022417</v>
+        <v>12.886120340997124</v>
       </c>
       <c r="M1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.853203057934707</v>
+        <v>5.7847473297909193</v>
       </c>
       <c r="N1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.487199230124546</v>
+        <v>-3.3107127873527413</v>
       </c>
       <c r="O1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9044962160594583</v>
+        <v>12.438464326094188</v>
       </c>
       <c r="P1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49711706119960652</v>
+        <v>1.0780782608036912</v>
       </c>
       <c r="Q1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9390503977092877</v>
+        <v>5.1357633047131834</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:P20" ca="1" si="1">RAND()*20-7</f>
-        <v>3.2075218644149892</v>
+        <v>6.1331299786380367</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4243949299331451</v>
+        <v>8.253335687044892</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2363914695076303</v>
+        <v>-0.39799906292751253</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.1093847871701</v>
+        <v>1.4293639719072804</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2432419312922303</v>
+        <v>7.6069335348196496</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7313051028325459</v>
+        <v>9.2299145359488222</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5343724080320111</v>
+        <v>3.5338083481991891</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4492085325632065</v>
+        <v>-5.5290930339970199</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4009855489374434</v>
+        <v>-5.8791957242933854</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9469758701182514</v>
+        <v>7.4709944899721314</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9679385502100306</v>
+        <v>-4.6742395675876214</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2110754902687653</v>
+        <v>3.7721874402412769</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3401587184744024</v>
+        <v>7.8418343882837398</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2262533291496993</v>
+        <v>-5.850579618253791</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8960518928423422</v>
+        <v>7.7741866192353797</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0741338580978805</v>
+        <v>12.996705116075425</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9275939997810632</v>
+        <v>-1.0423805092753717</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5345081586329856</v>
+        <v>10.46178751252145</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9193183042098667</v>
+        <v>1.1913549789492457</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.807211047701532</v>
+        <v>2.5415530090162619E-3</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77437589491663594</v>
+        <v>-4.7484903718103748</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.22870230567354</v>
+        <v>-2.4283729313733176</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1219694679570242</v>
+        <v>5.1125070542129532</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5462108845930356</v>
+        <v>11.277384153881354</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>11.685971262278862</v>
+        <v>9.2912650390890619</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9306647194435316</v>
+        <v>0.17131897033178412</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7058695235484027</v>
+        <v>-4.5572040365920623</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>11.89135235023593</v>
+        <v>10.060610215644143</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1588846347609465</v>
+        <v>4.7070482153570943</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41204700138659778</v>
+        <v>8.2460366189932355</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.488501906955666</v>
+        <v>4.8438229442184522</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0374399917646748</v>
+        <v>4.3613813872871638</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4420121278010996</v>
+        <v>11.015406167625638</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4407505941058716</v>
+        <v>-2.9077421583271867</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>11.558225662731321</v>
+        <v>-6.8066410463447422</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9952479616575545</v>
+        <v>-1.6169032852914427</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5216205362040078</v>
+        <v>-1.4913723539646888</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9372624843623889</v>
+        <v>-3.9612738236532667</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2378821879114614</v>
+        <v>1.3300327152196356</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5698980036169088</v>
+        <v>-0.82490883534743098</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5782211934951942</v>
+        <v>5.951101691827553</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.96701290148356</v>
+        <v>-2.1435216919317757</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19288641903769665</v>
+        <v>-5.3217034169648567</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7160584432267871</v>
+        <v>7.9807556546676306</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.464680090795291</v>
+        <v>11.772281592658935</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5401495279924493</v>
+        <v>-3.2586194298715192</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2007268640885602</v>
+        <v>11.177653519817532</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2048521506867917</v>
+        <v>12.70705719493429</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3031151904609715</v>
+        <v>9.8175906576614054</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18546828221797718</v>
+        <v>5.726800945653185</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3957796902954129</v>
+        <v>7.6684244806327015</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91850193882126696</v>
+        <v>8.4671717062086049</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6942424280210346</v>
+        <v>12.09133710246968</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4920001933695204</v>
+        <v>-5.4900886919550755</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.102544046383649</v>
+        <v>4.6231367907931435</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.1455698324961339</v>
+        <v>10.70081797653382</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3811444818380298</v>
+        <v>0.84099813653861766</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8649964136200037</v>
+        <v>11.108272152891182</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9155230568008328</v>
+        <v>1.2519198073160318</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0530346030550053</v>
+        <v>4.9583092626921648</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9056791571906402</v>
+        <v>8.3319364161833853</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.158056116036736</v>
+        <v>7.3880151397265053</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5585277832425248</v>
+        <v>2.54770353026489</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.165812746763496</v>
+        <v>8.3961766728763969</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.940632775071624</v>
+        <v>4.4846022593452179</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31991144705397367</v>
+        <v>11.02768677103569</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30167454973888752</v>
+        <v>-6.3833759830537966</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7153832888839053</v>
+        <v>1.5445804537622152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6662158796342537</v>
+        <v>3.0974636573541865</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9972766474190244</v>
+        <v>9.3265168598013872</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45514208456216387</v>
+        <v>3.0449819797589193</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40453710104612384</v>
+        <v>-2.7778697262871104</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0864957998799092</v>
+        <v>-2.8814352742763809</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7287007242416834</v>
+        <v>1.6765010923325896</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8398880243963127</v>
+        <v>7.1909525388965427</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0055260311256085</v>
+        <v>8.7039577917781674</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7718008114077022</v>
+        <v>9.0236786847294397</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1305038240222913E-2</v>
+        <v>3.182680191412377</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5581391038212171</v>
+        <v>12.159013363541845</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5618165817141261</v>
+        <v>10.824005903965087</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4605590828137167</v>
+        <v>7.1798402058132478</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56737951315276547</v>
+        <v>-6.5333511227274208</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9417416285758016</v>
+        <v>-6.9992126162395696</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.620026585664359</v>
+        <v>0.42887370889639342</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1270325163405719</v>
+        <v>9.9065141484321941</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8456692918709248</v>
+        <v>10.462572673669282</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7919643290087581</v>
+        <v>5.5082985294060922</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.54943760967179056</v>
+        <v>-0.64020425890181798</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5458489565555844</v>
+        <v>2.1455327676813347</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5917460815861659</v>
+        <v>10.813607456472624</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.339943534807865</v>
+        <v>-5.2927380532896411</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.683881158146715</v>
+        <v>0.12793804396264719</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9557875237861087</v>
+        <v>-2.1047936636926501</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7636865067983649</v>
+        <v>-3.3505794751291988</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0483059043189975</v>
+        <v>-4.2551907149210271</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6543785471831995</v>
+        <v>3.75638377375933</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.826625584744058</v>
+        <v>4.4244889290649496</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6391064609856709</v>
+        <v>2.1804777185703994</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7324429762556033</v>
+        <v>10.163018375359648</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9181080081414095</v>
+        <v>1.6023077799065923</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.91480696127216365</v>
+        <v>-3.4187525822573654</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9848443268924925</v>
+        <v>3.6158439214954718</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0831555607936423</v>
+        <v>-5.5184596591540966</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.841158751052316</v>
+        <v>3.710136275436966</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>11.546876944004172</v>
+        <v>9.4380812095183764</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5450929482726963</v>
+        <v>11.22554082842521</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6111446706574011</v>
+        <v>-6.6270589754653546</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5208396216189488</v>
+        <v>3.9608279011810481</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2066133026286803</v>
+        <v>-0.39737050871548707</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8520673760128972</v>
+        <v>9.0317205093100519</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9158616199269449</v>
+        <v>9.6306126379208088</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8883118496374234</v>
+        <v>1.8528201284701709</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1260004450524139</v>
+        <v>-2.0083184640441374</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3443374595040787</v>
+        <v>-1.5131015362019085</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5203378776232004</v>
+        <v>11.515143020749683</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2134030402975391</v>
+        <v>-3.1366813343260951</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1051494507946895</v>
+        <v>-0.25676859618219083</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3676078544992309</v>
+        <v>-3.9825479004800117</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5065720377314769</v>
+        <v>11.04192951080385</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1287972451998805</v>
+        <v>7.1009639522518455</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6657277066945131</v>
+        <v>4.7502414559519508</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.337953188676753</v>
+        <v>-5.6208484971394084</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3999993844879075</v>
+        <v>-1.1015477746366464</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.579292408086804</v>
+        <v>-2.8875089762344128</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5491335239420909</v>
+        <v>7.8269518408139582</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0211352226902344</v>
+        <v>-5.158963555845884</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1614838847162829</v>
+        <v>7.5077635119937085</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2456709224672391</v>
+        <v>-5.4151533183172278</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1408259372757197</v>
+        <v>-1.6347265947975957</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9317067468503044</v>
+        <v>-5.2606105549255631</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5732330204454641</v>
+        <v>7.8986567530550609</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1292896143434277</v>
+        <v>3.747289242928721</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2526683058733901</v>
+        <v>-3.0825438288253464</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8892145774890308</v>
+        <v>-4.8324737729978899</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8320719559799183</v>
+        <v>-0.89955468259183036</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4818485404650907</v>
+        <v>-4.9125362018591332</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>10.581477057665857</v>
+        <v>12.5658193966959</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35223548409651428</v>
+        <v>-4.2906921113178491</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4663803194633722</v>
+        <v>7.9603367749095018</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.596957399022852</v>
+        <v>10.242090528877107</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91026850769521062</v>
+        <v>-0.70598671307170502</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.562059735103734</v>
+        <v>11.378305862096667</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8486164794609863</v>
+        <v>12.773922960465821</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3797699899394411</v>
+        <v>3.8847638630910879</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3244457916199153</v>
+        <v>6.858811726032398</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9027542978314349</v>
+        <v>11.272305191207362</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.751558976233814</v>
+        <v>-2.4628293995815547</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7102614685788069</v>
+        <v>5.8203942095794954</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8887988448407871</v>
+        <v>3.5877151207832583</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.53238788483365</v>
+        <v>4.3379677641511165</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4506023901091929</v>
+        <v>7.2352749094871527</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0979388819556402</v>
+        <v>-0.31343819709724663</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.722836540715392</v>
+        <v>3.1116219348896426</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>8.547430884838489</v>
+        <v>9.5076223497772148</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.095448554193398</v>
+        <v>5.6972547640106548</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68517328979795611</v>
+        <v>-0.50177705929290095</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9928994483795144</v>
+        <v>5.4357529089125087</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2645567291252249</v>
+        <v>-6.6691421774667274</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9478805084941175</v>
+        <v>-6.0511019926288183</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3855490795603984</v>
+        <v>12.349465172817357</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7378323597150871</v>
+        <v>-5.3377750058281874</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.46122761291721481</v>
+        <v>-2.226908263024292</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0025794720328447</v>
+        <v>-3.6305122329091071</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7519072548385672</v>
+        <v>1.1862746270223461</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.96676752909292</v>
+        <v>1.8298189025027281</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.3693881688668981E-2</v>
+        <v>-6.7017076465328067</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.754101892434083</v>
+        <v>3.1619029270707717</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9971023194871513</v>
+        <v>8.6477976102218275</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.603258583668989</v>
+        <v>3.059710911491976</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1107052849520009</v>
+        <v>-1.5209769468545407</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2767957220156116</v>
+        <v>6.41077082445371</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8302150233270655</v>
+        <v>7.9738985723968181</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.692998468398752</v>
+        <v>-3.4536323621026481</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.89668689978944</v>
+        <v>5.2789770078467342</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8527752153975534</v>
+        <v>-0.40373489481864588</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1999788820469011</v>
+        <v>8.4183186769521647</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1022056036715249</v>
+        <v>-1.7144277616188424</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0767472832308389</v>
+        <v>-4.0557487057420261</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.866509186211466</v>
+        <v>5.6107744831577779</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2745091129777872</v>
+        <v>9.7688844610744283</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1073941006908452</v>
+        <v>-3.4016974343778377</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9913054928578751</v>
+        <v>6.1324266411288431</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3397411797305878</v>
+        <v>10.356858832374421</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5885445545436738</v>
+        <v>4.035232469729916</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.408145516390249</v>
+        <v>6.8025883903663846</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0284020176191149E-2</v>
+        <v>11.626538432480487</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.227667344661416</v>
+        <v>7.1127019636128708</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>12.639987591396039</v>
+        <v>5.996246747936965</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6221669693045655</v>
+        <v>6.9109303128574062</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1514917163150002</v>
+        <v>5.0387806276127911</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0556733440053456</v>
+        <v>-0.17188151740939173</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.151883814821517</v>
+        <v>6.4951916220883312</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8837983862493832</v>
+        <v>6.1031494080297364</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.038338752757589</v>
+        <v>11.940236457363874</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.492910530415148</v>
+        <v>-6.2493902524124749</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1255940014932087</v>
+        <v>3.8473693889916447</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8952431875020821</v>
+        <v>1.006983439394844</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6787738458302979</v>
+        <v>2.6787685337704481</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8155126409567259</v>
+        <v>3.9455566613954751</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27039108252212429</v>
+        <v>9.499697762920615</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7230062703570272</v>
+        <v>4.8585912429162459</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7175818091900936</v>
+        <v>3.3113209983362424</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.476714460867491</v>
+        <v>-3.5784701996573647</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2667214510083387</v>
+        <v>2.8089778283487643</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>11.633112273880748</v>
+        <v>-1.7765910648659187</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.986401780843984</v>
+        <v>-2.6302700389281313</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.848900056027045</v>
+        <v>2.7852294883615283</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.1363875722047396E-2</v>
+        <v>6.3984884808719507</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1042533134901671</v>
+        <v>-1.0326775528929133</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3760576330022509</v>
+        <v>7.6071225503972606</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7435984878817408</v>
+        <v>3.7034580468029858</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7737072262332383</v>
+        <v>9.8547129169216987</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77495480764331059</v>
+        <v>6.0185713815723876</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2959055232676473</v>
+        <v>4.4380514037228949</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2625884979764779</v>
+        <v>1.4843146817099164</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1603175145512576</v>
+        <v>6.205113558053803</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.029291695520671</v>
+        <v>-1.3436754683885992</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68927977532664286</v>
+        <v>2.6915423257182969</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5584957511206703</v>
+        <v>3.3855748012985476</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1072718919655955</v>
+        <v>-0.37839345606288255</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6312343424156488</v>
+        <v>7.0927850438775373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5077127475487799</v>
+        <v>-4.3073836598664847</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1323228841854416</v>
+        <v>10.373332356970611</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5009354460533721</v>
+        <v>6.1484815674575941</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9047064960857369</v>
+        <v>4.3595976113574171</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1877109894883873</v>
+        <v>-2.9846389206864465</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3412779425813248</v>
+        <v>0.50455176592426554</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3244394891774363</v>
+        <v>12.80646723618187</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2942476926775299</v>
+        <v>-5.1401933271264282</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9161242084686023</v>
+        <v>6.5536215461254717</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8076845809118884</v>
+        <v>6.3657574953997589</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7001900339617375</v>
+        <v>2.8950367251155633</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2456217368344245</v>
+        <v>-3.6638530541447172</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8149247544159088</v>
+        <v>2.2045222361056833</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.313137043107631</v>
+        <v>0.83338588964087368</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2406296414622968</v>
+        <v>3.986434570043917</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6909416113007794</v>
+        <v>-0.35199555817696293</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4003357351799002</v>
+        <v>-1.6049039028050291</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5895020900271484</v>
+        <v>-3.1440321625515537</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8050635273865261</v>
+        <v>-0.66003297544057737</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1424259945516173</v>
+        <v>12.507110661253073</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5538101987700763</v>
+        <v>-1.1422044516408292</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9032395463672591</v>
+        <v>2.5529513980792444</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5132878460978105</v>
+        <v>9.5015862819021706</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8598304545430331</v>
+        <v>8.7419658273192589</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9610893256522353</v>
+        <v>-3.3792671366176434</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.80291297142373</v>
+        <v>1.2106383838961232</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6041241456389557E-2</v>
+        <v>-3.519010631027502</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.470086539845898</v>
+        <v>4.8151850371890603</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7595395510358252</v>
+        <v>-6.6898634982561678</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7537999627829848</v>
+        <v>5.4847473671377411</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26320918972283902</v>
+        <v>-2.1558504190595826</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.772211000764174</v>
+        <v>12.399637469979925</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7454154927340539</v>
+        <v>9.8280242043488997</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="K16:Q20" ca="1" si="2">RAND()*20-7</f>
-        <v>-2.5018996076618176</v>
+        <v>-6.0943981340508522</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3049519976624708</v>
+        <v>2.7884241312801485</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9931517191065904</v>
+        <v>-5.7342675524444813</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9234481706247077</v>
+        <v>11.531938470413195</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4127875650963162</v>
+        <v>11.02726799649475</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.416617696990528</v>
+        <v>10.004523084054291</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7324505485256001</v>
+        <v>12.22087297422674</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8402429274365382</v>
+        <v>9.7854234690729882</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5069876037635641</v>
+        <v>7.8570585859740216</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.839241331255522</v>
+        <v>0.6955376193604863</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5550237285403643</v>
+        <v>9.9370141030202461</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>12.188040780218746</v>
+        <v>5.6737784791078383E-2</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7676644756626629</v>
+        <v>6.32354601111299</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3172334378017965</v>
+        <v>9.5486024476765365</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5835084359224156</v>
+        <v>10.013355408459663</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.465308132607289</v>
+        <v>-4.1101757673472443</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5921072468417803</v>
+        <v>11.393936117106236</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78845438894399944</v>
+        <v>12.165898990168888</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1559180602483572</v>
+        <v>-4.33468661047133</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5717426024331651</v>
+        <v>9.1201646786232473</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4221089534099232</v>
+        <v>10.124959208452843</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3950322622636158</v>
+        <v>-5.5906544302364685</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37800458190314856</v>
+        <v>-3.1415234000021335</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3203951167203876</v>
+        <v>3.3143915882229464</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2808164369538595</v>
+        <v>8.126073751567656</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.278037832191405</v>
+        <v>12.873315508433077</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0866806187876863</v>
+        <v>5.3497607567189416</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5058034523172328</v>
+        <v>-2.0015347244978647</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0972015155420838</v>
+        <v>5.4554191045529024</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5819332879876065</v>
+        <v>-3.6685739040054304</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.18245394687716576</v>
+        <v>4.9767096207996708</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8702755799865098</v>
+        <v>10.564736854974523</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2558507671148291</v>
+        <v>1.270748978084697</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="2"/>
-        <v>12.460410330394055</v>
+        <v>4.8987555808684569</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9053143402485091</v>
+        <v>0.30422268914296069</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3289972252802755</v>
+        <v>-3.1313273529791901</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.875662655379422</v>
+        <v>1.335408291935579</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5713165129830902</v>
+        <v>-3.1382364687016699</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7415599082934534</v>
+        <v>-4.5196472386642466</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3750850731511726</v>
+        <v>3.6855749176403627</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9850935487580195</v>
+        <v>-1.7746561602236266</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7358580409746285</v>
+        <v>-0.87729690291561013</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.65657386490488889</v>
+        <v>7.1724122853876029</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7316948450896952</v>
+        <v>-0.8962482390659865</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.98494288949435838</v>
+        <v>-5.9088685544731323</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6295888822276972</v>
+        <v>3.1860296693568877</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.1744133351439308</v>
+        <v>10.557353758963856</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.5283416677911088</v>
+        <v>5.6881649977238471</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4362209474140855</v>
+        <v>-1.2830984210994298</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="2"/>
-        <v>11.408533435206074</v>
+        <v>-4.9852887763319735</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1349440205529469</v>
+        <v>9.2992696394625085</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.4096739906591225</v>
+        <v>-0.59889512375060328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.169914278531996</v>
+        <v>12.677327503636576</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.3597433545697424</v>
+        <v>2.3217815090042127</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7927038947013045</v>
+        <v>1.1499864549553909</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4650631352540575</v>
+        <v>12.916039334328929</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7682765584411975</v>
+        <v>3.8165801717382966</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6314801526133875</v>
+        <v>11.240006861827776</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.83817438821100865</v>
+        <v>7.265491852310241</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7637197241553721</v>
+        <v>-6.0579473229778129</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9658149567976722</v>
+        <v>-0.35229699080825405</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.447051587801315</v>
+        <v>-4.9826315024519907</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6457542618293015</v>
+        <v>9.8552920597033236</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3784296641836651</v>
+        <v>-2.5804605809447638</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8556018783670254</v>
+        <v>7.5991926398934684</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>12.087529787280978</v>
+        <v>11.988486107723187</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.9223837582279195</v>
+        <v>-1.0008884152792357</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7346323759532929</v>
+        <v>1.1230791708468892</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.30958510941411</v>
+        <v>10.083789691187661</v>
       </c>
     </row>
   </sheetData>
